--- a/BlockStruc.xlsx
+++ b/BlockStruc.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11475" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,29 +26,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림에 보여지는 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_Blocks[7][6] 실제 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5</t>
+    <t>2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,35 +216,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,55 +228,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_Hidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, +1, same</t>
+  </si>
+  <si>
+    <t>m_Vidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin block vs Pickup block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,13 +307,99 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -223,26 +434,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -260,6 +513,1027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395097</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Hexagon 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="600075"/>
+          <a:ext cx="861822" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="752475"/>
+          <a:ext cx="3286125" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>??? Attach</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>MonoClass : Block</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="2257424"/>
+          <a:ext cx="8820150" cy="5076825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>Controll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>e specific Class</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>IngameManager prepare:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>    instantiate </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>emptyObject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> having controll class(Hexagon, Quardrilateral) - HexagonField Class</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>    public Class HexagonField : MonoBehaviour {} </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>    GameState : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>395097</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Hexagon 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="981075"/>
+          <a:ext cx="861822" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="9439275"/>
+          <a:ext cx="600075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>633413</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Arrow 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5038725" y="9667876"/>
+          <a:ext cx="600075" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Arrow 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="7924800"/>
+          <a:ext cx="314325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="628650"/>
+          <a:ext cx="1590675" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61722</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Hexagon 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="962025"/>
+          <a:ext cx="861822" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3648075"/>
+          <a:ext cx="3371850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="3848100"/>
+          <a:ext cx="619125" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>H index</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="428625" y="438150"/>
+          <a:ext cx="9525" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-104775" y="1685925"/>
+          <a:ext cx="619125" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>V index</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476751" y="876301"/>
+          <a:ext cx="1238250" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="1219200"/>
+          <a:ext cx="2228852" cy="638176"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,10 +1799,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H15"/>
+  <dimension ref="E36:O41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="36" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="5:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -536,223 +2058,432 @@
     <col min="2" max="8" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="K3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="20"/>
+      <c r="N8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="11"/>
+    </row>
+    <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="L11" s="12"/>
+      <c r="M11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
+      <c r="M12" s="12"/>
+      <c r="N12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="84">
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BlockStruc.xlsx
+++ b/BlockStruc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Factory\TuLub\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11475" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="11475" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,46 +224,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_Hidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1, +1, same</t>
+  </si>
+  <si>
+    <t>m_Vidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin block vs Pickup block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_Hidx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1, +1, same</t>
-  </si>
-  <si>
-    <t>m_Vidx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin block vs Pickup block</t>
+    <t>4, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(hidx가 같을 때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vIdx -1, +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(vidx가 같을 때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hIdx -1, +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1,+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +530,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,17 +554,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,67 +1133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="885825" y="628650"/>
-          <a:ext cx="1590675" cy="1362075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>61722</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1140,8 +1150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="962025"/>
-          <a:ext cx="861822" cy="742950"/>
+          <a:off x="1438275" y="4229100"/>
+          <a:ext cx="542925" cy="468039"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
           <a:avLst/>
@@ -1170,10 +1180,2641 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Hexagon 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="3762375"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Hexagon 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="3295650"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Hexagon 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="2828925"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Hexagon 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="2362200"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Hexagon 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="1895475"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>0,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Hexagon 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="4000500"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Hexagon 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="3533775"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Hexagon 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="3067050"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Hexagon 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2600325"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Hexagon 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2133600"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Hexagon 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="1666875"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Hexagon 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4229100"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Hexagon 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="3762375"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Hexagon 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="3295650"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Hexagon 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="2828925"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Hexagon 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="2362200"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Hexagon 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1895475"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Hexagon 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="4000500"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Hexagon 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="3533775"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Hexagon 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="3067050"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Hexagon 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2600325"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Hexagon 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="2133600"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Hexagon 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="1666875"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Hexagon 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2971800"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Hexagon 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2505075"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Hexagon 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2038350"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Hexagon 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="1571625"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Hexagon 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="1104900"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Hexagon 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="638175"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Hexagon 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="2743200"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Hexagon 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="2276475"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Hexagon 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1809750"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134664</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Hexagon 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1343025"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Hexagon 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="876300"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Hexagon 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="409575"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>5,5</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Hexagon 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2971800"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Hexagon 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2505075"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>201339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Hexagon 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="2038350"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153714</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Hexagon 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1571625"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Hexagon 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="1104900"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Hexagon 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="638175"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>6,5</a:t>
+          </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1938,104 +4579,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E16"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2047,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2080,7 +4914,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="12"/>
@@ -2093,7 +4927,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="12"/>
@@ -2105,10 +4939,10 @@
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="11" t="s">
         <v>32</v>
       </c>
@@ -2116,10 +4950,10 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="18"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="11" t="s">
         <v>32</v>
       </c>
@@ -2128,11 +4962,11 @@
       <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="12"/>
@@ -2141,51 +4975,51 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="M6" s="12"/>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="13" t="s">
         <v>35</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="11"/>
     </row>
     <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="16"/>
+      <c r="M7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="11"/>
       <c r="P7" s="12"/>
     </row>
     <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
+      <c r="C8" s="20"/>
+      <c r="D8" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11" t="s">
@@ -2193,14 +5027,14 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="11" t="s">
         <v>40</v>
       </c>
@@ -2208,22 +5042,22 @@
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="20"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2232,12 +5066,12 @@
       <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="11" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11" t="s">
@@ -2245,10 +5079,10 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="11" t="s">
         <v>44</v>
       </c>
@@ -2260,7 +5094,7 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2271,7 +5105,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="11" t="s">
         <v>4</v>
       </c>
@@ -2289,11 +5123,11 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11"/>
@@ -2306,7 +5140,7 @@
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="11"/>
@@ -2314,22 +5148,22 @@
     <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
       <c r="H13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="12"/>
       <c r="M13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="11"/>
@@ -2337,15 +5171,15 @@
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11"/>
@@ -2358,7 +5192,7 @@
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="11"/>
@@ -2373,29 +5207,169 @@
       <c r="N15" s="12"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="C22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="M11:M12"/>
@@ -2412,74 +5386,6 @@
     <mergeCell ref="N14:N15"/>
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="M9:M10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BlockStruc.xlsx
+++ b/BlockStruc.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,22 @@
   </si>
   <si>
     <t>0,+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidx가 짝수이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1, -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidx가 홀수이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,13 +1150,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1198,13 +1214,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1262,13 +1278,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>201339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1326,13 +1342,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>153714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1390,13 +1406,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1454,13 +1470,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1518,13 +1534,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>67989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1582,13 +1598,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>20364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1646,13 +1662,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>182289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1710,13 +1726,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>134664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1777,13 +1793,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1841,13 +1857,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1905,13 +1921,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1969,13 +1985,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2033,13 +2049,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>201339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2097,13 +2113,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>153714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2161,13 +2177,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2225,13 +2241,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2289,13 +2305,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>67989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2353,13 +2369,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>20364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2417,13 +2433,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>182289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2481,13 +2497,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>134664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2545,13 +2561,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2609,13 +2625,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2673,13 +2689,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2737,13 +2753,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2801,13 +2817,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>201339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2865,13 +2881,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>153714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2929,13 +2945,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2993,13 +3009,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3057,13 +3073,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>67989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3121,13 +3137,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>20364</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3185,13 +3201,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>182289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3249,13 +3265,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>134664</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3313,13 +3329,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3377,13 +3393,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3441,13 +3457,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>87039</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3505,13 +3521,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3569,13 +3585,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>201339</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3633,13 +3649,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>153714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3697,13 +3713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>106089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3761,13 +3777,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>58464</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4579,133 +4595,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
@@ -4715,10 +4769,13 @@
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -4728,6 +4785,13 @@
       <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -4737,6 +4801,13 @@
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -4746,6 +4817,11 @@
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -4755,6 +4831,11 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -4764,6 +4845,11 @@
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -4773,103 +4859,48 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BlockStruc.xlsx
+++ b/BlockStruc.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,15 +327,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+1, -1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hidx가 홀수이면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,22 +532,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -570,11 +556,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,7 +1744,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln w="19050">
           <a:solidFill>
@@ -3832,6 +3827,1849 @@
             <a:t>6,5</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Hexagon 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="5295900"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Hexagon 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="4829175"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Hexagon 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5524500"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Hexagon 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5057775"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Hexagon 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="4591050"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Hexagon 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="5295900"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Hexagon 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="4829175"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>96564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Hexagon 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="5286375"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Hexagon 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="4819650"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Hexagon 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="5524500"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77514</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Hexagon 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="5057775"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29889</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Hexagon 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="4591050"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>96564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Hexagon 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="5286375"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,3</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Hexagon 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="4819650"/>
+          <a:ext cx="542925" cy="468039"/>
+        </a:xfrm>
+        <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>4,4</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="4629150"/>
+          <a:ext cx="666750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>-1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="5619750"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>-1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rounded Rectangle 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="4581525"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rounded Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="5610225"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="4200525"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> +1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="6029325"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> -1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819525" y="4629150"/>
+          <a:ext cx="666750" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>-1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rounded Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="5619750"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>-1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rounded Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="4581525"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rounded Rectangle 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="5610225"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>+1,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="4200525"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> +1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rounded Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="6029325"/>
+          <a:ext cx="676275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> -1</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4597,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4760,9 +6598,9 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
@@ -4771,9 +6609,7 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -4786,9 +6622,6 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4803,9 +6636,7 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -4925,318 +6756,318 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="G3" s="13"/>
+      <c r="K3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="11"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="15" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="20"/>
+      <c r="M5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="J6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="13" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="13" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="13" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="22"/>
+      <c r="M9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="J10" s="13" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="11"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="11" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="11" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="J12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="11" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="11" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11" t="s">
+      <c r="L13" s="14"/>
+      <c r="M13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="11" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="14"/>
+      <c r="N14" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="13"/>
     </row>
     <row r="15" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
@@ -5244,22 +7075,22 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
@@ -5333,6 +7164,74 @@
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
@@ -5349,74 +7248,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="M9:M10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
